--- a/webscrapping final/Bases finales/base_2014.xlsx
+++ b/webscrapping final/Bases finales/base_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\SED---Cuantitativo\webscrapping final\Bases finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C80D15-BF7F-4735-9FBF-2FA1C31940BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82C189-1524-4F1B-B0D0-C5E8A307D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">BASE_PAROS_UNIFICADOS_2014!$A$1:$N$2</definedName>
+    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">BASE_PAROS_UNIFICADOS_2014!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -130,6 +130,39 @@
   </si>
   <si>
     <t>WEB;SED</t>
+  </si>
+  <si>
+    <t>FECODE; CUT</t>
+  </si>
+  <si>
+    <t>movilización nacional</t>
+  </si>
+  <si>
+    <t>FECODE</t>
+  </si>
+  <si>
+    <t>planton</t>
+  </si>
+  <si>
+    <t>Cumplimiento de acuerdos de mayo; rechazo a política educativa; nuevo sistema de ascensos (1278)</t>
+  </si>
+  <si>
+    <t>Jornada nacional con marchas y concentraciones; afectación parcial de clases según ciudad. En Bogotá, la SED pidió normalidad.</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>quejas por salud; cumplimiento de acuerdos</t>
+  </si>
+  <si>
+    <t>Gran movilización. En varias regiones hubo plantones y paros locales de 24h; en Bogotá se buscó no afectar la jornada escolar.</t>
+  </si>
+  <si>
+    <t>https://cut.org.co/los-docentes-se-movilizaron-masivamente-a-nivel-nacional/?utm_source</t>
+  </si>
+  <si>
+    <t>https://fecode.edu.co/wp-content/uploads/2023/PDF2023WP/boletin_encuentro/Boletin%20Encuentro%202014/BOLETIN%20ENCUENTRO%20No.%20352.pdf</t>
   </si>
 </sst>
 </file>
@@ -159,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,18 +225,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -212,28 +253,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -289,8 +330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{229478B4-C255-43CE-9B50-84DB1F7B9806}" name="BASE_PAROS_UNIFICADOS_2014" displayName="BASE_PAROS_UNIFICADOS_2014" ref="A1:P2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P2" xr:uid="{229478B4-C255-43CE-9B50-84DB1F7B9806}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{229478B4-C255-43CE-9B50-84DB1F7B9806}" name="BASE_PAROS_UNIFICADOS_2014" displayName="BASE_PAROS_UNIFICADOS_2014" ref="A1:P4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:P4" xr:uid="{229478B4-C255-43CE-9B50-84DB1F7B9806}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{AAA950C0-28F8-420D-8C13-4B57D47B26C1}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{3877F4EE-ED97-4339-A763-1C3959222F78}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="13"/>
@@ -298,14 +339,14 @@
     <tableColumn id="4" xr3:uid="{4F088AEF-8FE8-40A9-A63F-ABD3C6ABD91E}" uniqueName="4" name="organizaciones_sindicales" queryTableFieldId="4" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{A4356CE2-C2CF-4B2B-958E-33BDE295156A}" uniqueName="5" name="tipo_movilizacion" queryTableFieldId="5" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{8D178BE6-79AD-45C3-9FBB-0745184511DA}" uniqueName="6" name="duracion_dias" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{9D261F40-6872-4CCE-BD59-1874C80F59A5}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E8C18D5E-3CD4-4D59-B68B-2E560706EB6C}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{28027A0D-88DE-4449-BA10-6489C160C9ED}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B24A5F2A-3C93-43EF-B150-A3C108E0E995}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{F10BD490-5EE8-4DBD-830A-C6287421AACF}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{DA4FBFB7-E37F-40E0-AD8F-0EB11B7B5B10}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{BB01988E-4670-4812-9602-E02A3CF32F83}" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{4F786085-0E5E-4B0F-B34A-339D70404C62}" uniqueName="14" name="url_5" queryTableFieldId="14" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9D261F40-6872-4CCE-BD59-1874C80F59A5}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E8C18D5E-3CD4-4D59-B68B-2E560706EB6C}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{28027A0D-88DE-4449-BA10-6489C160C9ED}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{B24A5F2A-3C93-43EF-B150-A3C108E0E995}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{F10BD490-5EE8-4DBD-830A-C6287421AACF}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{DA4FBFB7-E37F-40E0-AD8F-0EB11B7B5B10}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{BB01988E-4670-4812-9602-E02A3CF32F83}" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{4F786085-0E5E-4B0F-B34A-339D70404C62}" uniqueName="14" name="url_5" queryTableFieldId="14" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{8A0628AB-799D-473C-B89E-217C1817EF0D}" uniqueName="15" name="url_6" queryTableFieldId="15" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{D439E67E-02C5-4C9B-A540-5F6142B60700}" uniqueName="16" name="url_7" queryTableFieldId="16" dataDxfId="0"/>
   </tableColumns>
@@ -576,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A00CD50-6669-4170-A8B4-16DC5AB2B811}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +631,7 @@
     <col min="4" max="4" width="79.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="81.140625" bestFit="1" customWidth="1"/>
@@ -617,7 +658,7 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -655,45 +696,102 @@
       <c r="B2" s="1">
         <v>41776</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>41884</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41884</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>41949</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41949</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +803,12 @@
     <hyperlink ref="N2" r:id="rId4" xr:uid="{B6CF4CA7-46EF-4D5B-A402-E9A7BD4A810F}"/>
     <hyperlink ref="O2" r:id="rId5" xr:uid="{1413797B-0A46-4493-AE4D-A2BA18674E1D}"/>
     <hyperlink ref="P2" r:id="rId6" xr:uid="{B9B37901-7EE7-44E0-B2AD-FEAFBEBF1B8C}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{31C353CD-ADCE-499C-9174-54B35FF1B5C9}"/>
+    <hyperlink ref="J4" r:id="rId8" xr:uid="{CD95572C-2528-4078-AED7-896F04A50850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
